--- a/UnderTheVoid/Assets/Resource/Data.xlsx
+++ b/UnderTheVoid/Assets/Resource/Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programing folder\Git\Git\UnderTheVoid\UnderTheVoid\Assets\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42940DD6-3F01-4F8F-A053-127BCEEE81BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE940EA8-FD6B-4AAD-8CCC-B8E0011359DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15885" xr2:uid="{A92052A2-4CE7-4ACE-808A-A240741FFA0D}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15885" activeTab="1" xr2:uid="{A92052A2-4CE7-4ACE-808A-A240741FFA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="캐릭터 선택창" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성직자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0C913C-BE8A-48F5-A65D-DCF9999982F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +481,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F3FE05-CC1D-4E5F-BBD0-7D8BF6ECB138}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>